--- a/sorular1.xlsx
+++ b/sorular1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetyasintazegul/cvbot2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6501111E-DD56-D34E-B991-A3C04FD8B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2336436-145F-5A4E-AE03-880ECFA07667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{EAD82620-247A-D745-A680-FDD8D913452A}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <t>Serdar Altay'ın Trade Policy Review of Turkey isimli projesi için yaptığın araştırma asistanlığına dair bilgi verir misin ?</t>
   </si>
   <si>
-    <t>Prof. Serdar Altay için yaptığımız çalışma veri analizi, toplaması ve editöryel destek sayesinde hocamız çalışmasını tamamlamış ve bu çalışma The World Economy isimli dergide yayınlanmıştır.</t>
-  </si>
-  <si>
     <t>Çinceyi nerden öğrendin ?</t>
   </si>
   <si>
     <t xml:space="preserve">Çinceyi İTÜ'de çinli bir hocamızdan iki kur olarak aldım ve başarılı bir şekilde tamamladım. </t>
+  </si>
+  <si>
+    <t>Serdar Altay'ın Trade Policy Review of Turkey isimli projesi için yaptığımız çalışma veri analizi, toplaması ve editöryel destek sayesinde hocamız çalışmasını tamamlamış ve bu çalışma The World Economy isimli dergide yayınlanmıştır.</t>
   </si>
 </sst>
 </file>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D86DD3-D42D-7940-8B0E-54E3C65DFAC9}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,20 +617,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
